--- a/Assets/unity-excel-importer-master/CameraPositionExcel.xlsx
+++ b/Assets/unity-excel-importer-master/CameraPositionExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keiggame/Documents/GitHub/EscapeGame/Assets/unity-excel-importer-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3028B09-4C26-6F49-9409-133F98F1887F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DDA9F3-6BC8-864C-9189-6EB7AFD7CF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5800" yWindow="2300" windowWidth="24440" windowHeight="15680" xr2:uid="{AD080041-FF23-364D-9C0F-D02FF7E9933C}"/>
+    <workbookView xWindow="5160" yWindow="1680" windowWidth="24440" windowHeight="15680" xr2:uid="{AD080041-FF23-364D-9C0F-D02FF7E9933C}"/>
   </bookViews>
   <sheets>
     <sheet name="cameraDataSheet" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>買い物カゴ方向(4方向)</t>
     <rPh sb="0" eb="1">
@@ -58,16 +58,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>買い物カゴ入力パネル</t>
-    <rPh sb="0" eb="2">
-      <t>カイモノ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ニュウリョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カゴの中を除く</t>
     <rPh sb="5" eb="6">
       <t>ノゾク</t>
@@ -75,53 +65,76 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>青い時計</t>
+    <t>プリンター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>cameraTitle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>posX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>posY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>posZ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rotX</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rotY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rotZ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プリンターのタッチパネルを操作</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>買い物カゴギミックの値段入力をする</t>
+    <rPh sb="0" eb="2">
+      <t>カイモノ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ネダn</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ニュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>青い時計を拡大</t>
     <rPh sb="0" eb="1">
       <t>アオイトケイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プリンター</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>値段入力パネル</t>
-    <rPh sb="0" eb="4">
-      <t>ネダn</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>cameraTitle</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>posX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>posY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>posZ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>rotX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>rotY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>rotZ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>id</t>
+    <rPh sb="5" eb="7">
+      <t>カクダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プリンターの横に落ちてる虫眼鏡に接近する</t>
+    <rPh sb="12" eb="15">
+      <t>ムセィ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>セッキn</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -506,44 +519,44 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408D4725-0D46-D849-9D5B-AD7D703D2CC9}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="1" max="1" width="4.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.85546875" customWidth="1"/>
+    <col min="2" max="2" width="34.85546875" customWidth="1"/>
     <col min="4" max="4" width="11.28515625" customWidth="1"/>
     <col min="5" max="5" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
-      </c>
-      <c r="H1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -554,7 +567,7 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>-0.3</v>
+        <v>-1.27</v>
       </c>
       <c r="D2">
         <v>9.73</v>
@@ -603,7 +616,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>10.28</v>
@@ -629,7 +642,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5">
         <v>12.87</v>
@@ -655,16 +668,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>9.7899999999999991</v>
+        <v>-0.3</v>
       </c>
       <c r="D6">
-        <v>8.1199999999999992</v>
+        <v>10.58</v>
       </c>
       <c r="E6">
-        <v>-11.85</v>
+        <v>-10.45</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -681,19 +694,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7">
-        <v>-0.3</v>
+        <v>-11.99</v>
       </c>
       <c r="D7">
-        <v>10.58</v>
+        <v>8.16</v>
       </c>
       <c r="E7">
-        <v>-10.45</v>
+        <v>-5.78</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G7">
         <v>-180</v>
@@ -707,24 +720,50 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C8">
-        <v>-11.99</v>
+        <v>-10.93</v>
       </c>
       <c r="D8">
-        <v>8.16</v>
+        <v>7.12</v>
       </c>
       <c r="E8">
-        <v>-5.78</v>
+        <v>-10.84</v>
       </c>
       <c r="F8">
-        <v>25</v>
+        <v>90</v>
       </c>
       <c r="G8">
         <v>-180</v>
       </c>
       <c r="H8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>-15.36</v>
+      </c>
+      <c r="D9">
+        <v>5.47</v>
+      </c>
+      <c r="E9">
+        <v>-9.9700000000000006</v>
+      </c>
+      <c r="F9">
+        <v>50</v>
+      </c>
+      <c r="G9">
+        <v>-180</v>
+      </c>
+      <c r="H9">
         <v>0</v>
       </c>
     </row>

--- a/Assets/unity-excel-importer-master/CameraPositionExcel.xlsx
+++ b/Assets/unity-excel-importer-master/CameraPositionExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keiggame/Documents/GitHub/EscapeGame/Assets/unity-excel-importer-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4DDA9F3-6BC8-864C-9189-6EB7AFD7CF07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8F78FE-0D0A-3547-9ACA-2447BFFBC814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5160" yWindow="1680" windowWidth="24440" windowHeight="15680" xr2:uid="{AD080041-FF23-364D-9C0F-D02FF7E9933C}"/>
+    <workbookView xWindow="5720" yWindow="1320" windowWidth="24440" windowHeight="15680" xr2:uid="{AD080041-FF23-364D-9C0F-D02FF7E9933C}"/>
   </bookViews>
   <sheets>
     <sheet name="cameraDataSheet" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>買い物カゴ方向(4方向)</t>
     <rPh sb="0" eb="1">
@@ -134,6 +134,36 @@
     </rPh>
     <rPh sb="16" eb="18">
       <t>セッキn</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脱出ドア方面のカメラ(4方向)</t>
+    <rPh sb="0" eb="2">
+      <t>ダッシュテゥ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ホウメn</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ホウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガチャマシン方面のカメラ(4方向)</t>
+    <rPh sb="6" eb="8">
+      <t>ホウメn</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ホウコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スライダーギミック方面のカメラ(4方向)</t>
+    <rPh sb="17" eb="19">
+      <t>ホウコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -519,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408D4725-0D46-D849-9D5B-AD7D703D2CC9}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -767,6 +797,84 @@
         <v>0</v>
       </c>
     </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10">
+        <v>-1.24</v>
+      </c>
+      <c r="D10">
+        <v>7.9</v>
+      </c>
+      <c r="E10">
+        <v>1.06</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>-90</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>-3.97</v>
+      </c>
+      <c r="D11">
+        <v>6.99</v>
+      </c>
+      <c r="E11">
+        <v>2.2599999999999998</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>-1.07</v>
+      </c>
+      <c r="D12">
+        <v>8.8800000000000008</v>
+      </c>
+      <c r="E12">
+        <v>2.75</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>90</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/unity-excel-importer-master/CameraPositionExcel.xlsx
+++ b/Assets/unity-excel-importer-master/CameraPositionExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keiggame/Documents/GitHub/EscapeGame/Assets/unity-excel-importer-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8F78FE-0D0A-3547-9ACA-2447BFFBC814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49442842-BA20-DC4F-A5BA-C44964DD6C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5720" yWindow="1320" windowWidth="24440" windowHeight="15680" xr2:uid="{AD080041-FF23-364D-9C0F-D02FF7E9933C}"/>
+    <workbookView xWindow="5560" yWindow="1280" windowWidth="24440" windowHeight="15680" xr2:uid="{AD080041-FF23-364D-9C0F-D02FF7E9933C}"/>
   </bookViews>
   <sheets>
     <sheet name="cameraDataSheet" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>買い物カゴ方向(4方向)</t>
     <rPh sb="0" eb="1">
@@ -165,6 +165,10 @@
     <rPh sb="17" eb="19">
       <t>ホウコウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レバーマシンのギミック</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -549,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408D4725-0D46-D849-9D5B-AD7D703D2CC9}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -875,6 +879,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="13" spans="1:8">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13">
+        <v>-11.25</v>
+      </c>
+      <c r="D13">
+        <v>9.8699999999999992</v>
+      </c>
+      <c r="E13">
+        <v>-9.51</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>-90</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/unity-excel-importer-master/CameraPositionExcel.xlsx
+++ b/Assets/unity-excel-importer-master/CameraPositionExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keiggame/Documents/GitHub/EscapeGame/Assets/unity-excel-importer-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49442842-BA20-DC4F-A5BA-C44964DD6C15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815B8CD5-7483-B041-8C4D-5FE9ECB90B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5560" yWindow="1280" windowWidth="24440" windowHeight="15680" xr2:uid="{AD080041-FF23-364D-9C0F-D02FF7E9933C}"/>
+    <workbookView xWindow="6840" yWindow="2420" windowWidth="24440" windowHeight="15680" xr2:uid="{AD080041-FF23-364D-9C0F-D02FF7E9933C}"/>
   </bookViews>
   <sheets>
     <sheet name="cameraDataSheet" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>買い物カゴ方向(4方向)</t>
     <rPh sb="0" eb="1">
@@ -169,6 +169,26 @@
   </si>
   <si>
     <t>レバーマシンのギミック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時計のヒント紙</t>
+    <rPh sb="0" eb="2">
+      <t>トケ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>カミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時計の謎タッチパネル操作</t>
+    <rPh sb="0" eb="1">
+      <t>トケイ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナゾ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -553,10 +573,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408D4725-0D46-D849-9D5B-AD7D703D2CC9}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -905,6 +925,58 @@
         <v>0</v>
       </c>
     </row>
+    <row r="14" spans="1:8">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>-11.15</v>
+      </c>
+      <c r="D14">
+        <v>11.48</v>
+      </c>
+      <c r="E14">
+        <v>10.02</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>-90</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15">
+        <v>-11.15</v>
+      </c>
+      <c r="D15">
+        <v>5.75</v>
+      </c>
+      <c r="E15">
+        <v>9.43</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>-90</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/unity-excel-importer-master/CameraPositionExcel.xlsx
+++ b/Assets/unity-excel-importer-master/CameraPositionExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keiggame/Documents/GitHub/EscapeGame/Assets/unity-excel-importer-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{815B8CD5-7483-B041-8C4D-5FE9ECB90B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE31229C-5B18-1E40-9AEF-CD25F7F8CEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6840" yWindow="2420" windowWidth="24440" windowHeight="15680" xr2:uid="{AD080041-FF23-364D-9C0F-D02FF7E9933C}"/>
+    <workbookView xWindow="5800" yWindow="2420" windowWidth="24440" windowHeight="15680" xr2:uid="{AD080041-FF23-364D-9C0F-D02FF7E9933C}"/>
   </bookViews>
   <sheets>
     <sheet name="cameraDataSheet" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>買い物カゴ方向(4方向)</t>
     <rPh sb="0" eb="1">
@@ -189,6 +189,10 @@
     <rPh sb="3" eb="4">
       <t>ナゾ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハートギミック</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -573,10 +577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408D4725-0D46-D849-9D5B-AD7D703D2CC9}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -977,6 +981,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="16" spans="1:8">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>-10.47</v>
+      </c>
+      <c r="D16">
+        <v>10.51</v>
+      </c>
+      <c r="E16">
+        <v>10.28</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/unity-excel-importer-master/CameraPositionExcel.xlsx
+++ b/Assets/unity-excel-importer-master/CameraPositionExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keiggame/Documents/GitHub/EscapeGame/Assets/unity-excel-importer-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE31229C-5B18-1E40-9AEF-CD25F7F8CEA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F13D0C3-77B6-E14C-92E7-8362EC49054C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5800" yWindow="2420" windowWidth="24440" windowHeight="15680" xr2:uid="{AD080041-FF23-364D-9C0F-D02FF7E9933C}"/>
+    <workbookView xWindow="3900" yWindow="1080" windowWidth="24440" windowHeight="15680" xr2:uid="{AD080041-FF23-364D-9C0F-D02FF7E9933C}"/>
   </bookViews>
   <sheets>
     <sheet name="cameraDataSheet" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>買い物カゴ方向(4方向)</t>
     <rPh sb="0" eb="1">
@@ -193,6 +193,10 @@
   </si>
   <si>
     <t>ハートギミック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テトリスボード</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -577,10 +581,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408D4725-0D46-D849-9D5B-AD7D703D2CC9}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1007,6 +1011,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17" spans="1:8">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17">
+        <v>-10.75</v>
+      </c>
+      <c r="D17">
+        <v>5.5</v>
+      </c>
+      <c r="E17">
+        <v>11.37</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/unity-excel-importer-master/CameraPositionExcel.xlsx
+++ b/Assets/unity-excel-importer-master/CameraPositionExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keiggame/Documents/GitHub/EscapeGame/Assets/unity-excel-importer-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F13D0C3-77B6-E14C-92E7-8362EC49054C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6BC6D8-740D-C24D-9124-3C441219ABAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="1080" windowWidth="24440" windowHeight="15680" xr2:uid="{AD080041-FF23-364D-9C0F-D02FF7E9933C}"/>
+    <workbookView xWindow="3280" yWindow="3100" windowWidth="24440" windowHeight="15680" xr2:uid="{AD080041-FF23-364D-9C0F-D02FF7E9933C}"/>
   </bookViews>
   <sheets>
     <sheet name="cameraDataSheet" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>買い物カゴ方向(4方向)</t>
     <rPh sb="0" eb="1">
@@ -197,6 +197,10 @@
   </si>
   <si>
     <t>テトリスボード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガチャマシン</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -581,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408D4725-0D46-D849-9D5B-AD7D703D2CC9}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1037,6 +1041,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="18" spans="1:8">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18">
+        <v>-0.16</v>
+      </c>
+      <c r="D18">
+        <v>6.03</v>
+      </c>
+      <c r="E18">
+        <v>8.7100000000000009</v>
+      </c>
+      <c r="F18">
+        <v>21.63</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/unity-excel-importer-master/CameraPositionExcel.xlsx
+++ b/Assets/unity-excel-importer-master/CameraPositionExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keiggame/Documents/GitHub/EscapeGame/Assets/unity-excel-importer-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6BC6D8-740D-C24D-9124-3C441219ABAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8B993E-36B2-3546-A872-067404417A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3280" yWindow="3100" windowWidth="24440" windowHeight="15680" xr2:uid="{AD080041-FF23-364D-9C0F-D02FF7E9933C}"/>
+    <workbookView xWindow="1780" yWindow="3660" windowWidth="24440" windowHeight="15680" xr2:uid="{AD080041-FF23-364D-9C0F-D02FF7E9933C}"/>
   </bookViews>
   <sheets>
     <sheet name="cameraDataSheet" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>買い物カゴ方向(4方向)</t>
     <rPh sb="0" eb="1">
@@ -201,6 +201,13 @@
   </si>
   <si>
     <t>ガチャマシン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>棚</t>
+    <rPh sb="0" eb="1">
+      <t>タナ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -585,10 +592,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408D4725-0D46-D849-9D5B-AD7D703D2CC9}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -867,10 +874,10 @@
         <v>17</v>
       </c>
       <c r="C11">
-        <v>-3.97</v>
+        <v>-3.23</v>
       </c>
       <c r="D11">
-        <v>6.99</v>
+        <v>5.57</v>
       </c>
       <c r="E11">
         <v>2.2599999999999998</v>
@@ -1064,6 +1071,32 @@
         <v>0</v>
       </c>
       <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19">
+        <v>3.5</v>
+      </c>
+      <c r="D19">
+        <v>4.93</v>
+      </c>
+      <c r="E19">
+        <v>12.66</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>90</v>
+      </c>
+      <c r="H19">
         <v>0</v>
       </c>
     </row>

--- a/Assets/unity-excel-importer-master/CameraPositionExcel.xlsx
+++ b/Assets/unity-excel-importer-master/CameraPositionExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keiggame/Documents/GitHub/EscapeGame/Assets/unity-excel-importer-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D8B993E-36B2-3546-A872-067404417A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC542EA8-D4D5-CF42-BEB9-F252846BC6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1780" yWindow="3660" windowWidth="24440" windowHeight="15680" xr2:uid="{AD080041-FF23-364D-9C0F-D02FF7E9933C}"/>
+    <workbookView xWindow="2220" yWindow="2460" windowWidth="24440" windowHeight="15680" xr2:uid="{AD080041-FF23-364D-9C0F-D02FF7E9933C}"/>
   </bookViews>
   <sheets>
     <sheet name="cameraDataSheet" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>買い物カゴ方向(4方向)</t>
     <rPh sb="0" eb="1">
@@ -204,9 +204,19 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>棚</t>
+    <t>棚全体</t>
     <rPh sb="0" eb="1">
       <t>タナ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>ゼンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本棚拡大</t>
+    <rPh sb="0" eb="2">
+      <t>ホンダナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -592,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408D4725-0D46-D849-9D5B-AD7D703D2CC9}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1100,6 +1110,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="20" spans="1:8">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20">
+        <v>10.17</v>
+      </c>
+      <c r="D20">
+        <v>6.12</v>
+      </c>
+      <c r="E20">
+        <v>13.1</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>90</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/unity-excel-importer-master/CameraPositionExcel.xlsx
+++ b/Assets/unity-excel-importer-master/CameraPositionExcel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keiggame/Documents/GitHub/EscapeGame/Assets/unity-excel-importer-master/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC542EA8-D4D5-CF42-BEB9-F252846BC6B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0456699-5F56-5144-8ECD-DA3DD64048F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2220" yWindow="2460" windowWidth="24440" windowHeight="15680" xr2:uid="{AD080041-FF23-364D-9C0F-D02FF7E9933C}"/>
+    <workbookView xWindow="3480" yWindow="1180" windowWidth="19820" windowHeight="15740" xr2:uid="{AD080041-FF23-364D-9C0F-D02FF7E9933C}"/>
   </bookViews>
   <sheets>
     <sheet name="cameraDataSheet" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>買い物カゴ方向(4方向)</t>
     <rPh sb="0" eb="1">
@@ -218,6 +218,20 @@
     <rPh sb="0" eb="2">
       <t>ホンダナ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>値段表拡大</t>
+    <rPh sb="0" eb="3">
+      <t>ネダn</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カクダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スライダー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -602,10 +616,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{408D4725-0D46-D849-9D5B-AD7D703D2CC9}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1040,7 +1054,7 @@
         <v>23</v>
       </c>
       <c r="C17">
-        <v>-10.75</v>
+        <v>-11.7</v>
       </c>
       <c r="D17">
         <v>5.5</v>
@@ -1133,6 +1147,58 @@
         <v>90</v>
       </c>
       <c r="H20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21">
+        <v>12.05</v>
+      </c>
+      <c r="D21">
+        <v>8.99</v>
+      </c>
+      <c r="E21">
+        <v>1.71</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>90</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22">
+        <v>10.29</v>
+      </c>
+      <c r="D22">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="E22">
+        <v>-8.11</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>90</v>
+      </c>
+      <c r="H22">
         <v>0</v>
       </c>
     </row>
